--- a/mbs-perturbation/chain/welm/smote/chain_welm_lin_smote_results.xlsx
+++ b/mbs-perturbation/chain/welm/smote/chain_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9370932754880694</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9563318777292577</v>
+        <v>0.8871794871794871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9379014989293362</v>
+        <v>0.8871794871794871</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9787494353260052</v>
+        <v>0.9265212399540759</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9436008676789588</v>
+        <v>0.8762626262626263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9819004524886877</v>
+        <v>0.8385416666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9434782608695652</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9735671191553544</v>
+        <v>0.9523207720588235</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.941304347826087</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9625</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9447852760736196</v>
+        <v>0.8341968911917099</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97</v>
+        <v>0.9109566326530613</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.941304347826087</v>
+        <v>0.8936708860759494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.8814432989690721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9433962264150944</v>
+        <v>0.890625</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9755880795703805</v>
+        <v>0.9476842591167872</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9456521739130435</v>
+        <v>0.8481012658227848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.973568281938326</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9464668094218416</v>
+        <v>0.8529411764705883</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9774725378608837</v>
+        <v>0.9374806681101144</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.941791002546449</v>
+        <v>0.8690615010868175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9671678147389466</v>
+        <v>0.8498695482449857</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9432056143418913</v>
+        <v>0.8665734166287343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9750754343825248</v>
+        <v>0.9349927143785723</v>
       </c>
     </row>
   </sheetData>
